--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request800.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1898"/>
+  <dimension ref="A1:C1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.932</v>
+        <v>19.932</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0296</v>
+        <v>0.0288</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0024</v>
+        <v>0.0032</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.696</v>
+        <v>7.696800000000001</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0576</v>
+        <v>0.0568</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2752</v>
+        <v>0.2768</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0464</v>
+        <v>0.0456</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0832</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1752</v>
+        <v>0.1736</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0624</v>
+        <v>0.064</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0704</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2192</v>
+        <v>0.22</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3112</v>
+        <v>0.3104</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.427200000000001</v>
+        <v>6.428</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.352</v>
+        <v>0.3504</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4264000000000001</v>
+        <v>0.4272</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.9184</v>
+        <v>1.916</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6792</v>
+        <v>0.68</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08960000000000001</v>
+        <v>0.08880000000000002</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08880000000000002</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.156</v>
+        <v>0.1552</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232</v>
+        <v>0.2328</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9176</v>
+        <v>0.9168000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2552</v>
+        <v>0.256</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2448</v>
+        <v>0.2456</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3192</v>
+        <v>0.3184</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.9216</v>
+        <v>3.9208</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.4208</v>
+        <v>4.422400000000001</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.412</v>
+        <v>0.4128</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4216</v>
+        <v>0.4208</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9216</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.27760000000001</v>
+        <v>44.2784</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>0.1048</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="117">
@@ -1718,7 +1718,7 @@
         <v>0.3368</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="118">
@@ -1729,7 +1729,7 @@
         <v>0.2992</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="119">
@@ -1740,7 +1740,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="120">
@@ -2730,7 +2730,7 @@
         <v>3.132</v>
       </c>
       <c r="C209" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="210">
@@ -2741,7 +2741,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C210" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="211">
@@ -2752,7 +2752,7 @@
         <v>0.588</v>
       </c>
       <c r="C211" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="212">
@@ -2763,7 +2763,7 @@
         <v>0.4088</v>
       </c>
       <c r="C212" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>0.1904</v>
       </c>
       <c r="C213" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="214">
@@ -2785,7 +2785,7 @@
         <v>0.556</v>
       </c>
       <c r="C214" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="215">
@@ -2796,7 +2796,7 @@
         <v>0.2</v>
       </c>
       <c r="C215" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="216">
@@ -2807,7 +2807,7 @@
         <v>1.652</v>
       </c>
       <c r="C216" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="217">
@@ -2870,7 +2870,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.188</v>
+        <v>0.1888</v>
       </c>
       <c r="C222" t="n">
         <v>625001</v>
@@ -2903,7 +2903,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.7328</v>
+        <v>1.732</v>
       </c>
       <c r="C225" t="n">
         <v>625001</v>
@@ -2914,7 +2914,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1424</v>
+        <v>0.1432</v>
       </c>
       <c r="C226" t="n">
         <v>625001</v>
@@ -2925,7 +2925,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4168</v>
+        <v>0.4176</v>
       </c>
       <c r="C227" t="n">
         <v>625001</v>
@@ -2936,7 +2936,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0408</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C228" t="n">
         <v>625001</v>
@@ -3753,7 +3753,7 @@
         <v>0.24</v>
       </c>
       <c r="C302" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="303">
@@ -3764,7 +3764,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C303" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="304">
@@ -3775,7 +3775,7 @@
         <v>1.596</v>
       </c>
       <c r="C304" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="305">
@@ -3786,7 +3786,7 @@
         <v>5.0064</v>
       </c>
       <c r="C305" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="306">
@@ -3797,7 +3797,7 @@
         <v>2.572</v>
       </c>
       <c r="C306" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="307">
@@ -3904,7 +3904,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>13.4136</v>
+        <v>13.412</v>
       </c>
       <c r="C316" t="n">
         <v>937501</v>
@@ -3915,7 +3915,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>11.1184</v>
+        <v>11.12</v>
       </c>
       <c r="C317" t="n">
         <v>937501</v>
@@ -4127,7 +4127,7 @@
         <v>4.928</v>
       </c>
       <c r="C336" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="337">
@@ -4432,7 +4432,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>6.427200000000001</v>
+        <v>6.428</v>
       </c>
       <c r="C364" t="n">
         <v>1250001</v>
@@ -4465,7 +4465,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.0208</v>
+        <v>1.02</v>
       </c>
       <c r="C367" t="n">
         <v>1250001</v>
@@ -4476,7 +4476,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.6776</v>
+        <v>0.6784000000000001</v>
       </c>
       <c r="C368" t="n">
         <v>1250001</v>
@@ -4487,7 +4487,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.08880000000000002</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C369" t="n">
         <v>1250001</v>
@@ -4498,7 +4498,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.096</v>
       </c>
       <c r="C370" t="n">
         <v>1250001</v>
@@ -4509,7 +4509,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.1552</v>
+        <v>0.1544</v>
       </c>
       <c r="C371" t="n">
         <v>1250001</v>
@@ -4564,7 +4564,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.2456</v>
+        <v>0.2464</v>
       </c>
       <c r="C376" t="n">
         <v>1250001</v>
@@ -4575,7 +4575,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3184</v>
+        <v>0.3176</v>
       </c>
       <c r="C377" t="n">
         <v>1250001</v>
@@ -4597,7 +4597,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.412</v>
+        <v>0.4128</v>
       </c>
       <c r="C379" t="n">
         <v>1250001</v>
@@ -4608,7 +4608,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.3352000000000001</v>
+        <v>0.3344</v>
       </c>
       <c r="C380" t="n">
         <v>1250001</v>
@@ -4619,7 +4619,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>2.408</v>
+        <v>2.4088</v>
       </c>
       <c r="C381" t="n">
         <v>1250001</v>
@@ -4630,7 +4630,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>3.9208</v>
+        <v>3.92</v>
       </c>
       <c r="C382" t="n">
         <v>1250001</v>
@@ -5128,7 +5128,7 @@
         <v>1.9248</v>
       </c>
       <c r="C427" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="428">
@@ -5139,7 +5139,7 @@
         <v>3.9592</v>
       </c>
       <c r="C428" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="429">
@@ -5150,7 +5150,7 @@
         <v>0.152</v>
       </c>
       <c r="C429" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="430">
@@ -5161,7 +5161,7 @@
         <v>1.8296</v>
       </c>
       <c r="C430" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="431">
@@ -5169,10 +5169,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7728</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C431" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="432">
@@ -5180,10 +5180,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>2.7616</v>
+        <v>2.7608</v>
       </c>
       <c r="C432" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="433">
@@ -5194,7 +5194,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C433" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="434">
@@ -5205,7 +5205,7 @@
         <v>0.008</v>
       </c>
       <c r="C434" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="435">
@@ -5645,7 +5645,7 @@
         <v>11.9096</v>
       </c>
       <c r="C474" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="475">
@@ -5656,7 +5656,7 @@
         <v>4.4256</v>
       </c>
       <c r="C475" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="476">
@@ -5920,7 +5920,7 @@
         <v>9.416</v>
       </c>
       <c r="C499" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="500">
@@ -7053,7 +7053,7 @@
         <v>1.9248</v>
       </c>
       <c r="C602" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="603">
@@ -7064,7 +7064,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C603" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="604">
@@ -7075,7 +7075,7 @@
         <v>2.4184</v>
       </c>
       <c r="C604" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="605">
@@ -7086,7 +7086,7 @@
         <v>0.7728</v>
       </c>
       <c r="C605" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="606">
@@ -7097,7 +7097,7 @@
         <v>2.7608</v>
       </c>
       <c r="C606" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="607">
@@ -7108,7 +7108,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C607" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="608">
@@ -7119,7 +7119,7 @@
         <v>11.3296</v>
       </c>
       <c r="C608" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="609">
@@ -7548,7 +7548,7 @@
         <v>11.9088</v>
       </c>
       <c r="C647" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="648">
@@ -7559,7 +7559,7 @@
         <v>4.4256</v>
       </c>
       <c r="C648" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="649">
@@ -7823,7 +7823,7 @@
         <v>9.416</v>
       </c>
       <c r="C672" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="673">
@@ -8956,7 +8956,7 @@
         <v>1.9248</v>
       </c>
       <c r="C775" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="776">
@@ -8967,7 +8967,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C776" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="777">
@@ -8978,7 +8978,7 @@
         <v>2.4184</v>
       </c>
       <c r="C777" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="778">
@@ -8989,7 +8989,7 @@
         <v>0.7728</v>
       </c>
       <c r="C778" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="779">
@@ -9000,7 +9000,7 @@
         <v>2.7608</v>
       </c>
       <c r="C779" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="780">
@@ -9011,7 +9011,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C780" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="781">
@@ -9022,7 +9022,7 @@
         <v>11.3296</v>
       </c>
       <c r="C781" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="782">
@@ -9451,7 +9451,7 @@
         <v>11.9088</v>
       </c>
       <c r="C820" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="821">
@@ -9462,7 +9462,7 @@
         <v>4.4256</v>
       </c>
       <c r="C821" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="822">
@@ -9726,7 +9726,7 @@
         <v>9.416</v>
       </c>
       <c r="C845" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="846">
@@ -10859,7 +10859,7 @@
         <v>1.9248</v>
       </c>
       <c r="C948" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="949">
@@ -10870,7 +10870,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C949" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="950">
@@ -10881,7 +10881,7 @@
         <v>2.4184</v>
       </c>
       <c r="C950" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="951">
@@ -10892,7 +10892,7 @@
         <v>0.7728</v>
       </c>
       <c r="C951" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="952">
@@ -10903,7 +10903,7 @@
         <v>2.7608</v>
       </c>
       <c r="C952" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="953">
@@ -10914,7 +10914,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C953" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="954">
@@ -10925,7 +10925,7 @@
         <v>11.3296</v>
       </c>
       <c r="C954" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="955">
@@ -11354,7 +11354,7 @@
         <v>11.9088</v>
       </c>
       <c r="C993" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="994">
@@ -11365,7 +11365,7 @@
         <v>4.4256</v>
       </c>
       <c r="C994" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="995">
@@ -11629,7 +11629,7 @@
         <v>9.416</v>
       </c>
       <c r="C1018" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1019">
@@ -12762,7 +12762,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1121" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1122">
@@ -12773,7 +12773,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1122" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1123">
@@ -12784,7 +12784,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1123" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1124">
@@ -12795,7 +12795,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1124" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1125">
@@ -12806,7 +12806,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1125" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1126">
@@ -12817,7 +12817,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1126" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1127">
@@ -12828,7 +12828,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1127" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1128">
@@ -13257,7 +13257,7 @@
         <v>11.9088</v>
       </c>
       <c r="C1166" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1167">
@@ -13268,7 +13268,7 @@
         <v>4.4256</v>
       </c>
       <c r="C1167" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1168">
@@ -13532,7 +13532,7 @@
         <v>9.416</v>
       </c>
       <c r="C1191" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1192">
@@ -14665,7 +14665,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1294" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1295">
@@ -14676,7 +14676,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1295" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1296">
@@ -14687,7 +14687,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1296" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1297">
@@ -14698,7 +14698,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1297" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1298">
@@ -14709,7 +14709,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1298" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1299">
@@ -14720,7 +14720,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1299" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1300">
@@ -14731,7 +14731,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1300" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1301">
@@ -15160,7 +15160,7 @@
         <v>11.9088</v>
       </c>
       <c r="C1339" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1340">
@@ -15171,7 +15171,7 @@
         <v>4.4256</v>
       </c>
       <c r="C1340" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1341">
@@ -15435,7 +15435,7 @@
         <v>9.416</v>
       </c>
       <c r="C1364" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="1365">
@@ -16568,7 +16568,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1467" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1468">
@@ -16579,7 +16579,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1468" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1469">
@@ -16590,7 +16590,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1469" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1470">
@@ -16601,7 +16601,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1470" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1471">
@@ -16612,7 +16612,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1471" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1472">
@@ -16623,7 +16623,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1472" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1473">
@@ -16634,7 +16634,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1473" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1474">
@@ -17063,7 +17063,7 @@
         <v>11.9088</v>
       </c>
       <c r="C1512" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1513">
@@ -17074,7 +17074,7 @@
         <v>4.4256</v>
       </c>
       <c r="C1513" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1514">
@@ -17338,7 +17338,7 @@
         <v>9.416</v>
       </c>
       <c r="C1537" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="1538">
@@ -18471,7 +18471,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1640" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1641">
@@ -18482,7 +18482,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1641" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1642">
@@ -18493,7 +18493,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1642" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1643">
@@ -18504,7 +18504,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1643" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1644">
@@ -18515,7 +18515,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1644" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1645">
@@ -18526,7 +18526,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1645" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1646">
@@ -18537,7 +18537,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1646" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1647">
@@ -18776,7 +18776,7 @@
         <v>1666</v>
       </c>
       <c r="B1668" t="n">
-        <v>0.8416</v>
+        <v>0.8424</v>
       </c>
       <c r="C1668" t="n">
         <v>10312501</v>
@@ -18820,7 +18820,7 @@
         <v>1670</v>
       </c>
       <c r="B1672" t="n">
-        <v>2.9272</v>
+        <v>2.9264</v>
       </c>
       <c r="C1672" t="n">
         <v>10312501</v>
@@ -18966,7 +18966,7 @@
         <v>11.908</v>
       </c>
       <c r="C1685" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1686">
@@ -18977,7 +18977,7 @@
         <v>4.4256</v>
       </c>
       <c r="C1686" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1687">
@@ -19241,7 +19241,7 @@
         <v>9.4168</v>
       </c>
       <c r="C1710" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="1711">
@@ -20374,7 +20374,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1813" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1814">
@@ -20385,7 +20385,7 @@
         <v>5.3216</v>
       </c>
       <c r="C1814" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1815">
@@ -20396,7 +20396,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1815" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1816">
@@ -20407,7 +20407,7 @@
         <v>0.7736000000000001</v>
       </c>
       <c r="C1816" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1817">
@@ -20418,7 +20418,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1817" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1818">
@@ -20429,7 +20429,7 @@
         <v>0.9032</v>
       </c>
       <c r="C1818" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1819">
@@ -20440,7 +20440,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1819" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1820">
@@ -20869,7 +20869,7 @@
         <v>11.908</v>
       </c>
       <c r="C1858" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1859">
@@ -20880,7 +20880,7 @@
         <v>4.4256</v>
       </c>
       <c r="C1859" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1860">
@@ -21144,7 +21144,7 @@
         <v>9.4168</v>
       </c>
       <c r="C1883" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="1884">
@@ -21273,7 +21273,7 @@
         <v>1893</v>
       </c>
       <c r="B1895" t="n">
-        <v>8.9192</v>
+        <v>8.909600000000001</v>
       </c>
       <c r="C1895" t="n">
         <v>12187501</v>
@@ -21284,7 +21284,7 @@
         <v>1894</v>
       </c>
       <c r="B1896" t="n">
-        <v>7.4248</v>
+        <v>7.3448</v>
       </c>
       <c r="C1896" t="n">
         <v>12187501</v>
@@ -21295,20 +21295,9 @@
         <v>1895</v>
       </c>
       <c r="B1897" t="n">
-        <v>11.4104</v>
+        <v>18.4952</v>
       </c>
       <c r="C1897" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" s="1" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B1898" t="n">
-        <v>22.9952</v>
-      </c>
-      <c r="C1898" t="n">
         <v>12187501</v>
       </c>
     </row>
